--- a/simulation/manage/simulation/mainchainbc.xlsx
+++ b/simulation/manage/simulation/mainchainbc.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Server's Info</t>
   </si>
@@ -28,9 +28,156 @@
     <t>FileSize</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>ServAgrDuration</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>StartedMCRoundNumber</t>
   </si>
   <si>
@@ -56,6 +203,156 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>8993515114137367552</t>
+  </si>
+  <si>
+    <t>8983558054473932800</t>
+  </si>
+  <si>
+    <t>8999496044201695232</t>
+  </si>
+  <si>
+    <t>8990175610339923968</t>
+  </si>
+  <si>
+    <t>9012484019382220800</t>
+  </si>
+  <si>
+    <t>8996804888727866368</t>
+  </si>
+  <si>
+    <t>9004407503110885376</t>
+  </si>
+  <si>
+    <t>8999786255522167808</t>
+  </si>
+  <si>
+    <t>9000059811163239424</t>
+  </si>
+  <si>
+    <t>8987300396532588544</t>
+  </si>
+  <si>
+    <t>8980596437439105024</t>
+  </si>
+  <si>
+    <t>9006348376912575488</t>
+  </si>
+  <si>
+    <t>8988108343805682688</t>
+  </si>
+  <si>
+    <t>9019366186754210816</t>
+  </si>
+  <si>
+    <t>9006399876409530368</t>
+  </si>
+  <si>
+    <t>8993527267649944576</t>
+  </si>
+  <si>
+    <t>9005071899709859840</t>
+  </si>
+  <si>
+    <t>8982281333360569344</t>
+  </si>
+  <si>
+    <t>8989397569801741312</t>
+  </si>
+  <si>
+    <t>8999863785305648128</t>
+  </si>
+  <si>
+    <t>8994508046559886336</t>
+  </si>
+  <si>
+    <t>9015274292697842688</t>
+  </si>
+  <si>
+    <t>8989218251278460928</t>
+  </si>
+  <si>
+    <t>8991375068639620096</t>
+  </si>
+  <si>
+    <t>8994858503169117184</t>
+  </si>
+  <si>
+    <t>9002029969178644480</t>
+  </si>
+  <si>
+    <t>8995888749969917952</t>
+  </si>
+  <si>
+    <t>9008017166844525568</t>
+  </si>
+  <si>
+    <t>8997764116485407744</t>
+  </si>
+  <si>
+    <t>8993153707115029504</t>
+  </si>
+  <si>
+    <t>9002392585653391360</t>
+  </si>
+  <si>
+    <t>8995366556940910592</t>
+  </si>
+  <si>
+    <t>8997645790738826240</t>
+  </si>
+  <si>
+    <t>8998002122504554496</t>
+  </si>
+  <si>
+    <t>9003022074279255040</t>
+  </si>
+  <si>
+    <t>8998322046631143424</t>
+  </si>
+  <si>
+    <t>9001319025218248704</t>
+  </si>
+  <si>
+    <t>9002810339327276032</t>
+  </si>
+  <si>
+    <t>8998768633299628032</t>
+  </si>
+  <si>
+    <t>9011509607471220736</t>
+  </si>
+  <si>
+    <t>8993254617337384960</t>
+  </si>
+  <si>
+    <t>9000642050566681600</t>
+  </si>
+  <si>
+    <t>9006986069140862976</t>
+  </si>
+  <si>
+    <t>9006297465221599232</t>
+  </si>
+  <si>
+    <t>9002826980737875968</t>
+  </si>
+  <si>
+    <t>8995599128832134144</t>
+  </si>
+  <si>
+    <t>8991506204024881152</t>
+  </si>
+  <si>
+    <t>8993944641725438976</t>
+  </si>
+  <si>
+    <t>9004230546483422208</t>
+  </si>
+  <si>
+    <t>8996655111059198976</t>
   </si>
   <si>
     <t>Round#</t>
@@ -473,14 +770,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1181,11 +1478,11 @@
       <c r="AAA1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1195,11 +1492,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3">
-        <v>106</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1209,10 +1506,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
-        <v>115</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4">
@@ -1223,11 +1520,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
-        <v>110</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1237,11 +1534,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6">
-        <v>122</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1251,11 +1548,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7">
-        <v>113</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1265,11 +1562,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8">
-        <v>117</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1279,11 +1576,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9">
-        <v>115</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1293,11 +1590,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10">
-        <v>115</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1307,11 +1604,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11">
-        <v>108</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1321,11 +1618,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12">
-        <v>104</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1335,10 +1632,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13">
-        <v>119</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13">
@@ -1349,11 +1646,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14">
-        <v>108</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1363,11 +1660,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15">
-        <v>126</v>
-      </c>
-      <c r="C15">
-        <v>47</v>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1377,10 +1674,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16">
-        <v>119</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16">
@@ -1391,11 +1688,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17">
-        <v>111</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1405,11 +1702,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18">
-        <v>118</v>
-      </c>
-      <c r="C18">
-        <v>31</v>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1419,11 +1716,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19">
-        <v>105</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1433,11 +1730,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20">
-        <v>109</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1447,11 +1744,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21">
-        <v>115</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1461,11 +1758,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22">
-        <v>112</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1475,11 +1772,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23">
-        <v>123</v>
-      </c>
-      <c r="C23">
-        <v>42</v>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1489,11 +1786,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24">
-        <v>109</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1503,11 +1800,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1517,11 +1814,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26">
-        <v>112</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1531,11 +1828,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27">
-        <v>116</v>
-      </c>
-      <c r="C27">
-        <v>27</v>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1545,11 +1842,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28">
-        <v>113</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1559,11 +1856,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29">
-        <v>119</v>
-      </c>
-      <c r="C29">
-        <v>34</v>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1573,11 +1870,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30">
-        <v>114</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1587,11 +1884,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>17</v>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1601,11 +1898,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32">
-        <v>116</v>
-      </c>
-      <c r="C32">
-        <v>28</v>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1615,11 +1912,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33">
-        <v>112</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1629,11 +1926,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1643,11 +1940,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35">
-        <v>114</v>
-      </c>
-      <c r="C35">
-        <v>23</v>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1657,11 +1954,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36">
-        <v>117</v>
-      </c>
-      <c r="C36">
-        <v>28</v>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1671,11 +1968,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37">
-        <v>114</v>
-      </c>
-      <c r="C37">
-        <v>23</v>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1685,11 +1982,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38">
-        <v>116</v>
-      </c>
-      <c r="C38">
-        <v>26</v>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1699,11 +1996,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39">
-        <v>117</v>
-      </c>
-      <c r="C39">
-        <v>28</v>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1713,10 +2010,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
-        <v>114</v>
-      </c>
-      <c r="C40">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40">
@@ -1727,11 +2024,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41">
-        <v>121</v>
-      </c>
-      <c r="C41">
-        <v>38</v>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1741,11 +2038,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42">
-        <v>111</v>
-      </c>
-      <c r="C42">
-        <v>18</v>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1755,11 +2052,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43">
-        <v>115</v>
-      </c>
-      <c r="C43">
-        <v>26</v>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1769,11 +2066,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44">
-        <v>119</v>
-      </c>
-      <c r="C44">
-        <v>33</v>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1783,10 +2080,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45">
-        <v>118</v>
-      </c>
-      <c r="C45">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="D45">
@@ -1797,11 +2094,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46">
-        <v>117</v>
-      </c>
-      <c r="C46">
-        <v>28</v>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1811,11 +2108,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47">
-        <v>113</v>
-      </c>
-      <c r="C47">
-        <v>20</v>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1825,11 +2122,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48">
-        <v>110</v>
-      </c>
-      <c r="C48">
-        <v>16</v>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1839,11 +2136,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49">
-        <v>112</v>
-      </c>
-      <c r="C49">
-        <v>18</v>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1853,11 +2150,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50">
-        <v>117</v>
-      </c>
-      <c r="C50">
-        <v>30</v>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1867,11 +2164,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51">
-        <v>113</v>
-      </c>
-      <c r="C51">
-        <v>21</v>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1904,19 +2201,19 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2640,13 +2937,13 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3370,7 +3667,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4077,157 +4374,157 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>8993515114137367552</v>
-      </c>
-      <c r="C2">
-        <v>8983558054473932800</v>
-      </c>
-      <c r="D2">
-        <v>8999496044201695232</v>
-      </c>
-      <c r="E2">
-        <v>8990175610339923968</v>
-      </c>
-      <c r="F2">
-        <v>9012484019382220800</v>
-      </c>
-      <c r="G2">
-        <v>8996804888727866368</v>
-      </c>
-      <c r="H2">
-        <v>9004407503110885376</v>
-      </c>
-      <c r="I2">
-        <v>8999786255522167808</v>
-      </c>
-      <c r="J2">
-        <v>9000059811163239424</v>
-      </c>
-      <c r="K2">
-        <v>8987300396532588544</v>
-      </c>
-      <c r="L2">
-        <v>8980596437439105024</v>
-      </c>
-      <c r="M2">
-        <v>9006348376912575488</v>
-      </c>
-      <c r="N2">
-        <v>8988108343805682688</v>
-      </c>
-      <c r="O2">
-        <v>9019366186754210816</v>
-      </c>
-      <c r="P2">
-        <v>9006399876409530368</v>
-      </c>
-      <c r="Q2">
-        <v>8993527267649944576</v>
-      </c>
-      <c r="R2">
-        <v>9005071899709859840</v>
-      </c>
-      <c r="S2">
-        <v>8982281333360569344</v>
-      </c>
-      <c r="T2">
-        <v>8989397569801741312</v>
-      </c>
-      <c r="U2">
-        <v>8999863785305648128</v>
-      </c>
-      <c r="V2">
-        <v>8994508046559886336</v>
-      </c>
-      <c r="W2">
-        <v>9015274292697842688</v>
-      </c>
-      <c r="X2">
-        <v>8989218251278460928</v>
-      </c>
-      <c r="Y2">
-        <v>8991375068639620096</v>
-      </c>
-      <c r="Z2">
-        <v>8994858503169117184</v>
-      </c>
-      <c r="AA2">
-        <v>9002029969178644480</v>
-      </c>
-      <c r="AB2">
-        <v>8995888749969917952</v>
-      </c>
-      <c r="AC2">
-        <v>9008017166844525568</v>
-      </c>
-      <c r="AD2">
-        <v>8997764116485407744</v>
-      </c>
-      <c r="AE2">
-        <v>8993153707115029504</v>
-      </c>
-      <c r="AF2">
-        <v>9002392585653391360</v>
-      </c>
-      <c r="AG2">
-        <v>8995366556940910592</v>
-      </c>
-      <c r="AH2">
-        <v>8997645790738826240</v>
-      </c>
-      <c r="AI2">
-        <v>8998002122504554496</v>
-      </c>
-      <c r="AJ2">
-        <v>9003022074279255040</v>
-      </c>
-      <c r="AK2">
-        <v>8998322046631143424</v>
-      </c>
-      <c r="AL2">
-        <v>9001319025218248704</v>
-      </c>
-      <c r="AM2">
-        <v>9002810339327276032</v>
-      </c>
-      <c r="AN2">
-        <v>8998768633299628032</v>
-      </c>
-      <c r="AO2">
-        <v>9011509607471220736</v>
-      </c>
-      <c r="AP2">
-        <v>8993254617337384960</v>
-      </c>
-      <c r="AQ2">
-        <v>9000642050566681600</v>
-      </c>
-      <c r="AR2">
-        <v>9006986069140862976</v>
-      </c>
-      <c r="AS2">
-        <v>9006297465221599232</v>
-      </c>
-      <c r="AT2">
-        <v>9002826980737875968</v>
-      </c>
-      <c r="AU2">
-        <v>8995599128832134144</v>
-      </c>
-      <c r="AV2">
-        <v>8991506204024881152</v>
-      </c>
-      <c r="AW2">
-        <v>8993944641725438976</v>
-      </c>
-      <c r="AX2">
-        <v>9004230546483422208</v>
-      </c>
-      <c r="AY2">
-        <v>8996655111059198976</v>
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4250,52 +4547,52 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -4998,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5018,34 +5315,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>

--- a/simulation/manage/simulation/mainchainbc.xlsx
+++ b/simulation/manage/simulation/mainchainbc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Server's Info</t>
   </si>
@@ -52,39 +52,6 @@
     <t>108</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>ServAgrDuration</t>
   </si>
   <si>
@@ -115,69 +82,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>StartedMCRoundNumber</t>
   </si>
   <si>
@@ -235,126 +139,6 @@
     <t>8987300396532588544</t>
   </si>
   <si>
-    <t>8980596437439105024</t>
-  </si>
-  <si>
-    <t>9006348376912575488</t>
-  </si>
-  <si>
-    <t>8988108343805682688</t>
-  </si>
-  <si>
-    <t>9019366186754210816</t>
-  </si>
-  <si>
-    <t>9006399876409530368</t>
-  </si>
-  <si>
-    <t>8993527267649944576</t>
-  </si>
-  <si>
-    <t>9005071899709859840</t>
-  </si>
-  <si>
-    <t>8982281333360569344</t>
-  </si>
-  <si>
-    <t>8989397569801741312</t>
-  </si>
-  <si>
-    <t>8999863785305648128</t>
-  </si>
-  <si>
-    <t>8994508046559886336</t>
-  </si>
-  <si>
-    <t>9015274292697842688</t>
-  </si>
-  <si>
-    <t>8989218251278460928</t>
-  </si>
-  <si>
-    <t>8991375068639620096</t>
-  </si>
-  <si>
-    <t>8994858503169117184</t>
-  </si>
-  <si>
-    <t>9002029969178644480</t>
-  </si>
-  <si>
-    <t>8995888749969917952</t>
-  </si>
-  <si>
-    <t>9008017166844525568</t>
-  </si>
-  <si>
-    <t>8997764116485407744</t>
-  </si>
-  <si>
-    <t>8993153707115029504</t>
-  </si>
-  <si>
-    <t>9002392585653391360</t>
-  </si>
-  <si>
-    <t>8995366556940910592</t>
-  </si>
-  <si>
-    <t>8997645790738826240</t>
-  </si>
-  <si>
-    <t>8998002122504554496</t>
-  </si>
-  <si>
-    <t>9003022074279255040</t>
-  </si>
-  <si>
-    <t>8998322046631143424</t>
-  </si>
-  <si>
-    <t>9001319025218248704</t>
-  </si>
-  <si>
-    <t>9002810339327276032</t>
-  </si>
-  <si>
-    <t>8998768633299628032</t>
-  </si>
-  <si>
-    <t>9011509607471220736</t>
-  </si>
-  <si>
-    <t>8993254617337384960</t>
-  </si>
-  <si>
-    <t>9000642050566681600</t>
-  </si>
-  <si>
-    <t>9006986069140862976</t>
-  </si>
-  <si>
-    <t>9006297465221599232</t>
-  </si>
-  <si>
-    <t>9002826980737875968</t>
-  </si>
-  <si>
-    <t>8995599128832134144</t>
-  </si>
-  <si>
-    <t>8991506204024881152</t>
-  </si>
-  <si>
-    <t>8993944641725438976</t>
-  </si>
-  <si>
-    <t>9004230546483422208</t>
-  </si>
-  <si>
-    <t>8996655111059198976</t>
-  </si>
-  <si>
     <t>Round#</t>
   </si>
   <si>
@@ -403,7 +187,7 @@
     <t>BlockSpaceFull</t>
   </si>
   <si>
-    <t>4e07408562bedb8b60ce05c1decfe3ad16b72230967de01f640b7e4729b49fce</t>
+    <t>4b227777d4dd1fc61c6f884f48641d02b4d121d3fd328cb08b5531fcacdabf8a</t>
   </si>
   <si>
     <t>Overall#RegPay-TX</t>
@@ -770,14 +554,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1482,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1496,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1510,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1524,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1538,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1552,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1566,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1580,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1594,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1608,572 +1392,12 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="F51">
         <v>0</v>
       </c>
     </row>
@@ -2201,19 +1425,19 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2937,13 +2161,13 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3667,7 +2891,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4374,157 +3598,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4547,52 +3651,52 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -5284,7 +4388,7 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5295,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5315,34 +4419,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>

--- a/simulation/manage/simulation/mainchainbc.xlsx
+++ b/simulation/manage/simulation/mainchainbc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Server's Info</t>
   </si>
@@ -89,18 +89,6 @@
     <t>127</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>ServAgrDuration</t>
   </si>
   <si>
@@ -191,934 +179,283 @@
     <t>48</t>
   </si>
   <si>
+    <t>StartedMCRoundNumber</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>TXIssued</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>IssuedMCRoundNumber</t>
+  </si>
+  <si>
+    <t>ServAgrId</t>
+  </si>
+  <si>
+    <t>Round#/NodeInfo</t>
+  </si>
+  <si>
+    <t>Round#</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>BCSize</t>
+  </si>
+  <si>
+    <t>Round Leader</t>
+  </si>
+  <si>
+    <t>#RegPay-TX</t>
+  </si>
+  <si>
+    <t>#PoR-Tx</t>
+  </si>
+  <si>
+    <t>#StorjPay-Tx</t>
+  </si>
+  <si>
+    <t>#CntProp-Tx</t>
+  </si>
+  <si>
+    <t>#CntCmt-Tx</t>
+  </si>
+  <si>
+    <t>#Sync-Tx</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>TotalNumTxs</t>
+  </si>
+  <si>
+    <t>AveWait-OtherTxs</t>
+  </si>
+  <si>
+    <t>AveWait-RegPay</t>
+  </si>
+  <si>
+    <t>RegPaySpaceFull</t>
+  </si>
+  <si>
+    <t>BlockSpaceFull</t>
+  </si>
+  <si>
+    <t>98010bd9270f9b100b6214a21754fd33bdc8d41b2bc9f9dd16ff54d3c34ffd71</t>
+  </si>
+  <si>
+    <t>Overall#RegPay-TX</t>
+  </si>
+  <si>
+    <t>Overall#PoR-TX</t>
+  </si>
+  <si>
+    <t>Overall#StorjPay-TX</t>
+  </si>
+  <si>
+    <t>Overall#CntProp-TX</t>
+  </si>
+  <si>
+    <t>Overall#CntCmt-TX</t>
+  </si>
+  <si>
+    <t>OveralAveWait-OtherTxs</t>
+  </si>
+  <si>
+    <t>OveralAveWait-RegPay</t>
+  </si>
+  <si>
+    <t>OverallBlockSpaceFull</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51497</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51499</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51501</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51503</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51505</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51507</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51509</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51511</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51513</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51515</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51517</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51519</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51521</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51523</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51525</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51527</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51529</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51531</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51533</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51535</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51537</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51539</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51541</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51543</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51545</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51547</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51549</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51551</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51553</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51555</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51557</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51559</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51561</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51563</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51565</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51567</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51569</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51571</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51573</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51575</t>
+  </si>
+  <si>
+    <t>ServAgrID</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>StartedMCRoundNumber</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>TXIssued</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>IssuedMCRoundNumber</t>
-  </si>
-  <si>
-    <t>ServAgrId</t>
-  </si>
-  <si>
-    <t>Round#/NodeInfo</t>
-  </si>
-  <si>
-    <t>8997434980800601088</t>
-  </si>
-  <si>
-    <t>8998264371815671808</t>
-  </si>
-  <si>
-    <t>9001448283154999296</t>
-  </si>
-  <si>
-    <t>9005423166609735680</t>
-  </si>
-  <si>
-    <t>8990503095923371008</t>
-  </si>
-  <si>
-    <t>9003423288444920832</t>
-  </si>
-  <si>
-    <t>8978290067460154368</t>
-  </si>
-  <si>
-    <t>9008926480150809600</t>
-  </si>
-  <si>
-    <t>8979095396350332928</t>
-  </si>
-  <si>
-    <t>8998530896220479488</t>
-  </si>
-  <si>
-    <t>9000205707596396544</t>
-  </si>
-  <si>
-    <t>9002914895625725952</t>
-  </si>
-  <si>
-    <t>8999335471097447424</t>
-  </si>
-  <si>
-    <t>8980037351991620608</t>
-  </si>
-  <si>
-    <t>9018244389076698112</t>
-  </si>
-  <si>
-    <t>8994092836847188992</t>
-  </si>
-  <si>
-    <t>8991979644633862144</t>
-  </si>
-  <si>
-    <t>8998741355631621120</t>
-  </si>
-  <si>
-    <t>8986625006113735680</t>
-  </si>
-  <si>
-    <t>8996711230689897472</t>
-  </si>
-  <si>
-    <t>8992766350923655168</t>
-  </si>
-  <si>
-    <t>9015955567456494592</t>
-  </si>
-  <si>
-    <t>8997136328497909760</t>
-  </si>
-  <si>
-    <t>8979675351330807808</t>
-  </si>
-  <si>
-    <t>9010527854886236160</t>
-  </si>
-  <si>
-    <t>8987959410519719936</t>
-  </si>
-  <si>
-    <t>9004866817775203328</t>
-  </si>
-  <si>
-    <t>8996999160248985600</t>
-  </si>
-  <si>
-    <t>8982883400296853504</t>
-  </si>
-  <si>
-    <t>8992414351076509696</t>
-  </si>
-  <si>
-    <t>8996273204613959680</t>
-  </si>
-  <si>
-    <t>8998041824271694848</t>
-  </si>
-  <si>
-    <t>8999424783564449792</t>
-  </si>
-  <si>
-    <t>9007397000260412416</t>
-  </si>
-  <si>
-    <t>8990953139856882688</t>
-  </si>
-  <si>
-    <t>9006040170441464832</t>
-  </si>
-  <si>
-    <t>8996222448643341312</t>
-  </si>
-  <si>
-    <t>9011176375538434048</t>
-  </si>
-  <si>
-    <t>8989560599439214592</t>
-  </si>
-  <si>
-    <t>9020791381207587840</t>
-  </si>
-  <si>
-    <t>9003779217487064064</t>
-  </si>
-  <si>
-    <t>9005314043174363136</t>
-  </si>
-  <si>
-    <t>9000447318185504768</t>
-  </si>
-  <si>
-    <t>9000891767842623488</t>
-  </si>
-  <si>
-    <t>9003985215983963136</t>
-  </si>
-  <si>
-    <t>8995739867862983680</t>
-  </si>
-  <si>
-    <t>9002300795950810112</t>
-  </si>
-  <si>
-    <t>8994045384327566336</t>
-  </si>
-  <si>
-    <t>9007834810963061760</t>
-  </si>
-  <si>
-    <t>9013099339650905088</t>
-  </si>
-  <si>
-    <t>9002600267596003328</t>
-  </si>
-  <si>
-    <t>9003512226615478272</t>
-  </si>
-  <si>
-    <t>9005664254420629504</t>
-  </si>
-  <si>
-    <t>8996872820999564288</t>
-  </si>
-  <si>
-    <t>8982284556298882048</t>
-  </si>
-  <si>
-    <t>9006212608070000640</t>
-  </si>
-  <si>
-    <t>8996432144482253824</t>
-  </si>
-  <si>
-    <t>9014930784179235840</t>
-  </si>
-  <si>
-    <t>8996935112514590720</t>
-  </si>
-  <si>
-    <t>9001748337934562304</t>
-  </si>
-  <si>
-    <t>9010659451946504192</t>
-  </si>
-  <si>
-    <t>9006192747669699584</t>
-  </si>
-  <si>
-    <t>8994553236184897536</t>
-  </si>
-  <si>
-    <t>9003743545138170880</t>
-  </si>
-  <si>
-    <t>9003532602570001408</t>
-  </si>
-  <si>
-    <t>9000100185370036224</t>
-  </si>
-  <si>
-    <t>9005439327494147072</t>
-  </si>
-  <si>
-    <t>9010759211007040512</t>
-  </si>
-  <si>
-    <t>8998394053433271296</t>
-  </si>
-  <si>
-    <t>9013124810617294848</t>
-  </si>
-  <si>
-    <t>8991420463563945984</t>
-  </si>
-  <si>
-    <t>9002884891655779328</t>
-  </si>
-  <si>
-    <t>8990127117532367872</t>
-  </si>
-  <si>
-    <t>8994851141316574208</t>
-  </si>
-  <si>
-    <t>8994367031625421824</t>
-  </si>
-  <si>
-    <t>8985824256227741696</t>
-  </si>
-  <si>
-    <t>9000931995104151552</t>
-  </si>
-  <si>
-    <t>8998350063018919936</t>
-  </si>
-  <si>
-    <t>9013352209594252288</t>
-  </si>
-  <si>
-    <t>8997899464788140032</t>
-  </si>
-  <si>
-    <t>8990301694370121728</t>
-  </si>
-  <si>
-    <t>9008308228777699328</t>
-  </si>
-  <si>
-    <t>9000390393594934272</t>
-  </si>
-  <si>
-    <t>8994542526142667776</t>
-  </si>
-  <si>
-    <t>9001684916625893376</t>
-  </si>
-  <si>
-    <t>9009041162058765312</t>
-  </si>
-  <si>
-    <t>8987849520670984192</t>
-  </si>
-  <si>
-    <t>8998593143017999360</t>
-  </si>
-  <si>
-    <t>8986244765509360640</t>
-  </si>
-  <si>
-    <t>9000156355807396864</t>
-  </si>
-  <si>
-    <t>9004530327370167296</t>
-  </si>
-  <si>
-    <t>8984618543596162048</t>
-  </si>
-  <si>
-    <t>9000137671313521664</t>
-  </si>
-  <si>
-    <t>9005945664206007296</t>
-  </si>
-  <si>
-    <t>9004439192118656000</t>
-  </si>
-  <si>
-    <t>8987477898887813120</t>
-  </si>
-  <si>
-    <t>9004071184170192896</t>
-  </si>
-  <si>
-    <t>8992223614187610112</t>
-  </si>
-  <si>
-    <t>9013484386447354880</t>
-  </si>
-  <si>
-    <t>9005063973410300928</t>
-  </si>
-  <si>
-    <t>Round#</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>BCSize</t>
-  </si>
-  <si>
-    <t>Round Leader</t>
-  </si>
-  <si>
-    <t>#RegPay-TX</t>
-  </si>
-  <si>
-    <t>#PoR-Tx</t>
-  </si>
-  <si>
-    <t>#StorjPay-Tx</t>
-  </si>
-  <si>
-    <t>#CntProp-Tx</t>
-  </si>
-  <si>
-    <t>#CntCmt-Tx</t>
-  </si>
-  <si>
-    <t>#Sync-Tx</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>TotalNumTxs</t>
-  </si>
-  <si>
-    <t>AveWait-OtherTxs</t>
-  </si>
-  <si>
-    <t>AveWait-RegPay</t>
-  </si>
-  <si>
-    <t>RegPaySpaceFull</t>
-  </si>
-  <si>
-    <t>BlockSpaceFull</t>
-  </si>
-  <si>
-    <t>434c9b5ae514646bbd91b50032ca579efec8f22bf0b4aac12e65997c418e0dd6</t>
-  </si>
-  <si>
-    <t>Overall#RegPay-TX</t>
-  </si>
-  <si>
-    <t>Overall#PoR-TX</t>
-  </si>
-  <si>
-    <t>Overall#StorjPay-TX</t>
-  </si>
-  <si>
-    <t>Overall#CntProp-TX</t>
-  </si>
-  <si>
-    <t>Overall#CntCmt-TX</t>
-  </si>
-  <si>
-    <t>OveralAveWait-OtherTxs</t>
-  </si>
-  <si>
-    <t>OveralAveWait-RegPay</t>
-  </si>
-  <si>
-    <t>OverallBlockSpaceFull</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61976</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61978</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61980</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61982</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61984</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61986</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61988</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61990</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61992</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61994</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61996</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:61998</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62000</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62002</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62004</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62006</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62008</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62010</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62012</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62014</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62016</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62018</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62020</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62022</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62024</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62026</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62028</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62030</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62032</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62034</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62036</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62038</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62040</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62042</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62044</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62046</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62048</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62050</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62052</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62054</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62056</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62058</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62060</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62062</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62064</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62066</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62068</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62070</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62072</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62074</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62076</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62078</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62080</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62082</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62084</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62086</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62088</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62090</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62092</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62094</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62096</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62098</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62100</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62102</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62104</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62106</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62108</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62110</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62112</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62114</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62116</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62118</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62120</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62122</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62124</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62126</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62128</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62130</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62132</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62134</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62136</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62138</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62140</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62142</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62144</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62146</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62148</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62150</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62152</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62154</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62156</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62158</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62160</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62162</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62164</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62166</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62168</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62170</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62172</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:62174</t>
-  </si>
-  <si>
-    <t>ServAgrID</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>sum of file size</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:25-04:00</t>
-  </si>
-  <si>
-    <t>4d07a3846d002c578e7fae09a4d6bdf6a286de56ad14f5235cbced37d3a84412</t>
+    <t>2022-10-19T10:55:08-04:00</t>
+  </si>
+  <si>
+    <t>c9a3a3543f375284d0b5158d11c797c91d6b6d59d120730ed64fba13e16f5145</t>
   </si>
   <si>
     <t>TxSync</t>
@@ -1127,10 +464,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:42-04:00</t>
-  </si>
-  <si>
-    <t>06118b7a40867f8953c8b68b243b0553c76342126d6931ea1a167487c7887075</t>
+    <t>2022-10-19T10:55:24-04:00</t>
+  </si>
+  <si>
+    <t>2e20468d283b2ef608db94aa97c2dc4f0e0e73af043f894253381c9732589193</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:31-04:00</t>
+  </si>
+  <si>
+    <t>5032a00251b60639ec56d5bc3b422ecdcab4c44dcfa2a00f6ad0be3b30b40a51</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:37-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:38-04:00</t>
+  </si>
+  <si>
+    <t>9bfb11d942ff6c7160b5e65550c5ededd5106dda35917cdb8563c79ed6acbf84</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:45-04:00</t>
+  </si>
+  <si>
+    <t>ad037950c74b181c45c967f19e2f5d2d0030decaa4d95cc46362177b78a5ad0b</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:51-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:52-04:00</t>
+  </si>
+  <si>
+    <t>58ed30fae5c4fd2824c6e24c6ce6f5d3a6079b8eafa37cf9350108e095e20832</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:58-04:00</t>
+  </si>
+  <si>
+    <t>90bc5743a2b748c53db6b13952019a98bb45e229d55938a5109c688b1637290f</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:05-04:00</t>
+  </si>
+  <si>
+    <t>c056c2e210371cd372da8dd64243467372511ab39e215711ca297c0ebe0a3333</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:12-04:00</t>
+  </si>
+  <si>
+    <t>9afbf3f45d99266d4663176806941d031d2c5c41bea423a5321e0062a5142a66</t>
   </si>
 </sst>
 </file>
@@ -1473,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2186,19 +1571,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2209,19 +1594,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2232,19 +1617,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2255,19 +1640,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2278,19 +1663,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2301,19 +1686,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2324,42 +1709,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2370,22 +1755,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2393,19 +1778,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2416,19 +1801,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2439,19 +1824,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2462,19 +1847,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2485,22 +1870,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2508,19 +1893,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2531,19 +1916,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2554,19 +1939,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2577,19 +1962,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2600,19 +1985,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2623,19 +2008,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2646,19 +2031,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2669,19 +2054,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2692,19 +2077,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2715,22 +2100,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2738,19 +2123,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2761,19 +2146,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2784,19 +2169,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2807,19 +2192,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2830,22 +2215,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2853,19 +2238,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2876,19 +2261,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2899,19 +2284,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2922,19 +2307,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2945,19 +2330,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2968,19 +2353,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2991,19 +2376,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3014,19 +2399,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3037,19 +2422,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3060,19 +2445,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3083,1404 +2468,24 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>308</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>309</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>311</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>251</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>252</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>315</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>253</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>316</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>320</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>259</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>322</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>325</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>263</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>326</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>330</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>268</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>269</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>332</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>270</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>271</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>334</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>272</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>335</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>273</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>336</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>274</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>337</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>338</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>339</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>277</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>340</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>278</v>
-      </c>
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>341</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>279</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>342</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>280</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>343</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>344</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>282</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>345</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>283</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>346</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>284</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>348</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>286</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>349</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>287</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>350</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>288</v>
-      </c>
-      <c r="B90" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>351</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>289</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>352</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>290</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>353</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>291</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>354</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>292</v>
-      </c>
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>355</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>293</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>356</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>294</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>357</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>295</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>358</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>296</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>359</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>297</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>360</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>298</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>361</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>299</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>362</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
         <v>1</v>
       </c>
     </row>
@@ -4518,35 +2523,324 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TxStoragePayment</v>
+        <v>TxServAgrPropose</v>
       </c>
       <c r="B2" t="str">
-        <v>406</v>
+        <v>645</v>
       </c>
       <c r="C2" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="str">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>TxServAgrCommit</v>
+      </c>
+      <c r="B3" t="str">
+        <v>79</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2022-10-19T10:56:07-04:00</v>
+      </c>
+      <c r="D3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E3" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>TxSync</v>
       </c>
-      <c r="B3" t="str">
-        <v>0</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2022-09-23T12:29:42-04:00</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2022-10-19T10:56:05-04:00</v>
+      </c>
+      <c r="D4" t="str">
+        <v>8</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TxStoragePayment</v>
+      </c>
+      <c r="B5" t="str">
+        <v>406</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2022-10-19T10:56:00-04:00</v>
+      </c>
+      <c r="D5" t="str">
+        <v>7</v>
+      </c>
+      <c r="E5" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TxSync</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2022-10-19T10:55:51-04:00</v>
+      </c>
+      <c r="D6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TxServAgrPropose</v>
+      </c>
+      <c r="B7" t="str">
+        <v>645</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2022-10-19T10:55:47-04:00</v>
+      </c>
+      <c r="D7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TxServAgrCommit</v>
+      </c>
+      <c r="B8" t="str">
+        <v>79</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2022-10-19T10:55:47-04:00</v>
+      </c>
+      <c r="D8" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TxServAgrPropose</v>
+      </c>
+      <c r="B9" t="str">
+        <v>645</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D9" t="str">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TxServAgrCommit</v>
+      </c>
+      <c r="B10" t="str">
+        <v>79</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TxStoragePayment</v>
+      </c>
+      <c r="B11" t="str">
+        <v>406</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TxServAgrPropose</v>
+      </c>
+      <c r="B12" t="str">
+        <v>645</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D12" t="str">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TxServAgrCommit</v>
+      </c>
+      <c r="B13" t="str">
+        <v>79</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D13" t="str">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TxSync</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2022-10-19T10:55:37-04:00</v>
+      </c>
+      <c r="D14" t="str">
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TxServAgrPropose</v>
+      </c>
+      <c r="B15" t="str">
+        <v>645</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D15" t="str">
+        <v>3</v>
+      </c>
+      <c r="E15" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TxServAgrCommit</v>
+      </c>
+      <c r="B16" t="str">
+        <v>79</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D16" t="str">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TxStoragePayment</v>
+      </c>
+      <c r="B17" t="str">
+        <v>406</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D17" t="str">
+        <v>3</v>
+      </c>
+      <c r="E17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TxStoragePayment</v>
+      </c>
+      <c r="B18" t="str">
+        <v>406</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D18" t="str">
+        <v>3</v>
+      </c>
+      <c r="E18" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TxStoragePayment</v>
+      </c>
+      <c r="B19" t="str">
+        <v>406</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D19" t="str">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E19" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TxSync</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2022-10-19T10:55:24-04:00</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4587,10 +2881,10 @@
         <v>398</v>
       </c>
       <c r="B2" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="str"/>
       <c r="E2" t="str"/>
@@ -4600,10 +2894,10 @@
         <v>398</v>
       </c>
       <c r="B3" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str"/>
       <c r="E3" t="str"/>
@@ -4613,10 +2907,10 @@
         <v>398</v>
       </c>
       <c r="B4" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="str"/>
       <c r="E4" t="str"/>
@@ -4626,10 +2920,10 @@
         <v>398</v>
       </c>
       <c r="B5" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="str"/>
       <c r="E5" t="str"/>
@@ -4639,10 +2933,10 @@
         <v>398</v>
       </c>
       <c r="B6" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="C6" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str"/>
       <c r="E6" t="str"/>
@@ -4652,13 +2946,286 @@
         <v>398</v>
       </c>
       <c r="B7" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="str"/>
       <c r="E7" t="str"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>398</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2022-10-19T10:56:00-04:00</v>
+      </c>
+      <c r="C8" t="str">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str"/>
+      <c r="E8" t="str"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>398</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2022-10-19T10:56:00-04:00</v>
+      </c>
+      <c r="C9" t="str">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str"/>
+      <c r="E9" t="str"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>398</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2022-10-19T10:56:00-04:00</v>
+      </c>
+      <c r="C10" t="str">
+        <v>7</v>
+      </c>
+      <c r="D10" t="str"/>
+      <c r="E10" t="str"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>398</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2022-10-19T10:55:53-04:00</v>
+      </c>
+      <c r="C11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D11" t="str"/>
+      <c r="E11" t="str"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>398</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2022-10-19T10:55:53-04:00</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6</v>
+      </c>
+      <c r="D12" t="str"/>
+      <c r="E12" t="str"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>398</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2022-10-19T10:55:53-04:00</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str"/>
+      <c r="E13" t="str"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>398</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2022-10-19T10:55:47-04:00</v>
+      </c>
+      <c r="C14" t="str">
+        <v>5</v>
+      </c>
+      <c r="D14" t="str"/>
+      <c r="E14" t="str"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>398</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2022-10-19T10:55:47-04:00</v>
+      </c>
+      <c r="C15" t="str">
+        <v>5</v>
+      </c>
+      <c r="D15" t="str"/>
+      <c r="E15" t="str"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>398</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2022-10-19T10:55:47-04:00</v>
+      </c>
+      <c r="C16" t="str">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str"/>
+      <c r="E16" t="str"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>398</v>
+      </c>
+      <c r="B17" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="C17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str"/>
+      <c r="E17" t="str"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>398</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="C18" t="str">
+        <v>4</v>
+      </c>
+      <c r="D18" t="str"/>
+      <c r="E18" t="str"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>398</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="C19" t="str">
+        <v>4</v>
+      </c>
+      <c r="D19" t="str"/>
+      <c r="E19" t="str"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>398</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="C20" t="str">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str"/>
+      <c r="E20" t="str"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>398</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="C21" t="str">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str"/>
+      <c r="E21" t="str"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>398</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="C22" t="str">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str"/>
+      <c r="E22" t="str"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>398</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2</v>
+      </c>
+      <c r="D23" t="str"/>
+      <c r="E23" t="str"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>398</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2</v>
+      </c>
+      <c r="D24" t="str"/>
+      <c r="E24" t="str"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>398</v>
+      </c>
+      <c r="B25" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str"/>
+      <c r="E25" t="str"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>398</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str"/>
+      <c r="E26" t="str"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>398</v>
+      </c>
+      <c r="B27" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str"/>
+      <c r="E27" t="str"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>398</v>
+      </c>
+      <c r="B28" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str"/>
+      <c r="E28" t="str"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4681,308 +3248,188 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
       <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
@@ -5710,186 +4157,6 @@
       <c r="AO2">
         <v>127</v>
       </c>
-      <c r="AP2">
-        <v>117</v>
-      </c>
-      <c r="AQ2">
-        <v>118</v>
-      </c>
-      <c r="AR2">
-        <v>115</v>
-      </c>
-      <c r="AS2">
-        <v>115</v>
-      </c>
-      <c r="AT2">
-        <v>117</v>
-      </c>
-      <c r="AU2">
-        <v>113</v>
-      </c>
-      <c r="AV2">
-        <v>116</v>
-      </c>
-      <c r="AW2">
-        <v>112</v>
-      </c>
-      <c r="AX2">
-        <v>119</v>
-      </c>
-      <c r="AY2">
-        <v>122</v>
-      </c>
-      <c r="AZ2">
-        <v>116</v>
-      </c>
-      <c r="BA2">
-        <v>117</v>
-      </c>
-      <c r="BB2">
-        <v>118</v>
-      </c>
-      <c r="BC2">
-        <v>113</v>
-      </c>
-      <c r="BD2">
-        <v>105</v>
-      </c>
-      <c r="BE2">
-        <v>118</v>
-      </c>
-      <c r="BF2">
-        <v>113</v>
-      </c>
-      <c r="BG2">
-        <v>123</v>
-      </c>
-      <c r="BH2">
-        <v>113</v>
-      </c>
-      <c r="BI2">
-        <v>116</v>
-      </c>
-      <c r="BJ2">
-        <v>121</v>
-      </c>
-      <c r="BK2">
-        <v>118</v>
-      </c>
-      <c r="BL2">
-        <v>112</v>
-      </c>
-      <c r="BM2">
-        <v>117</v>
-      </c>
-      <c r="BN2">
-        <v>117</v>
-      </c>
-      <c r="BO2">
-        <v>115</v>
-      </c>
-      <c r="BP2">
-        <v>118</v>
-      </c>
-      <c r="BQ2">
-        <v>121</v>
-      </c>
-      <c r="BR2">
-        <v>114</v>
-      </c>
-      <c r="BS2">
-        <v>122</v>
-      </c>
-      <c r="BT2">
-        <v>110</v>
-      </c>
-      <c r="BU2">
-        <v>117</v>
-      </c>
-      <c r="BV2">
-        <v>110</v>
-      </c>
-      <c r="BW2">
-        <v>112</v>
-      </c>
-      <c r="BX2">
-        <v>112</v>
-      </c>
-      <c r="BY2">
-        <v>107</v>
-      </c>
-      <c r="BZ2">
-        <v>116</v>
-      </c>
-      <c r="CA2">
-        <v>114</v>
-      </c>
-      <c r="CB2">
-        <v>122</v>
-      </c>
-      <c r="CC2">
-        <v>114</v>
-      </c>
-      <c r="CD2">
-        <v>110</v>
-      </c>
-      <c r="CE2">
-        <v>120</v>
-      </c>
-      <c r="CF2">
-        <v>115</v>
-      </c>
-      <c r="CG2">
-        <v>112</v>
-      </c>
-      <c r="CH2">
-        <v>116</v>
-      </c>
-      <c r="CI2">
-        <v>120</v>
-      </c>
-      <c r="CJ2">
-        <v>108</v>
-      </c>
-      <c r="CK2">
-        <v>114</v>
-      </c>
-      <c r="CL2">
-        <v>107</v>
-      </c>
-      <c r="CM2">
-        <v>115</v>
-      </c>
-      <c r="CN2">
-        <v>118</v>
-      </c>
-      <c r="CO2">
-        <v>106</v>
-      </c>
-      <c r="CP2">
-        <v>115</v>
-      </c>
-      <c r="CQ2">
-        <v>118</v>
-      </c>
-      <c r="CR2">
-        <v>117</v>
-      </c>
-      <c r="CS2">
-        <v>108</v>
-      </c>
-      <c r="CT2">
-        <v>117</v>
-      </c>
-      <c r="CU2">
-        <v>111</v>
-      </c>
-      <c r="CV2">
-        <v>122</v>
-      </c>
-      <c r="CW2">
-        <v>118</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -6015,185 +4282,880 @@
       <c r="AO3">
         <v>127</v>
       </c>
-      <c r="AP3">
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>116</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4">
         <v>117</v>
       </c>
-      <c r="AQ3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>114</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>117</v>
+      </c>
+      <c r="N4">
+        <v>115</v>
+      </c>
+      <c r="O4">
+        <v>104</v>
+      </c>
+      <c r="P4">
+        <v>125</v>
+      </c>
+      <c r="Q4">
+        <v>112</v>
+      </c>
+      <c r="R4">
+        <v>111</v>
+      </c>
+      <c r="S4">
+        <v>114</v>
+      </c>
+      <c r="T4">
+        <v>108</v>
+      </c>
+      <c r="U4">
+        <v>113</v>
+      </c>
+      <c r="V4">
+        <v>111</v>
+      </c>
+      <c r="W4">
+        <v>124</v>
+      </c>
+      <c r="X4">
+        <v>113</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>121</v>
+      </c>
+      <c r="AA4">
+        <v>108</v>
+      </c>
+      <c r="AB4">
         <v>118</v>
       </c>
-      <c r="AR3">
+      <c r="AC4">
+        <v>113</v>
+      </c>
+      <c r="AD4">
+        <v>105</v>
+      </c>
+      <c r="AE4">
+        <v>111</v>
+      </c>
+      <c r="AF4">
+        <v>113</v>
+      </c>
+      <c r="AG4">
+        <v>114</v>
+      </c>
+      <c r="AH4">
         <v>115</v>
       </c>
-      <c r="AS3">
+      <c r="AI4">
+        <v>119</v>
+      </c>
+      <c r="AJ4">
+        <v>110</v>
+      </c>
+      <c r="AK4">
+        <v>118</v>
+      </c>
+      <c r="AL4">
+        <v>113</v>
+      </c>
+      <c r="AM4">
+        <v>121</v>
+      </c>
+      <c r="AN4">
+        <v>109</v>
+      </c>
+      <c r="AO4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>114</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+      <c r="G5">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>114</v>
+      </c>
+      <c r="L5">
         <v>115</v>
       </c>
-      <c r="AT3">
+      <c r="M5">
         <v>117</v>
       </c>
-      <c r="AU3">
+      <c r="N5">
+        <v>115</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>125</v>
+      </c>
+      <c r="Q5">
+        <v>112</v>
+      </c>
+      <c r="R5">
+        <v>111</v>
+      </c>
+      <c r="S5">
+        <v>114</v>
+      </c>
+      <c r="T5">
+        <v>108</v>
+      </c>
+      <c r="U5">
         <v>113</v>
       </c>
-      <c r="AV3">
+      <c r="V5">
+        <v>111</v>
+      </c>
+      <c r="W5">
+        <v>124</v>
+      </c>
+      <c r="X5">
+        <v>113</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>121</v>
+      </c>
+      <c r="AA5">
+        <v>108</v>
+      </c>
+      <c r="AB5">
+        <v>118</v>
+      </c>
+      <c r="AC5">
+        <v>113</v>
+      </c>
+      <c r="AD5">
+        <v>105</v>
+      </c>
+      <c r="AE5">
+        <v>111</v>
+      </c>
+      <c r="AF5">
+        <v>113</v>
+      </c>
+      <c r="AG5">
+        <v>114</v>
+      </c>
+      <c r="AH5">
+        <v>115</v>
+      </c>
+      <c r="AI5">
+        <v>119</v>
+      </c>
+      <c r="AJ5">
+        <v>110</v>
+      </c>
+      <c r="AK5">
+        <v>118</v>
+      </c>
+      <c r="AL5">
+        <v>113</v>
+      </c>
+      <c r="AM5">
+        <v>121</v>
+      </c>
+      <c r="AN5">
+        <v>109</v>
+      </c>
+      <c r="AO5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>114</v>
+      </c>
+      <c r="D6">
         <v>116</v>
       </c>
-      <c r="AW3">
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>117</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>114</v>
+      </c>
+      <c r="L6">
+        <v>115</v>
+      </c>
+      <c r="M6">
+        <v>117</v>
+      </c>
+      <c r="N6">
+        <v>115</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>125</v>
+      </c>
+      <c r="Q6">
         <v>112</v>
       </c>
-      <c r="AX3">
+      <c r="R6">
+        <v>111</v>
+      </c>
+      <c r="S6">
+        <v>114</v>
+      </c>
+      <c r="T6">
+        <v>108</v>
+      </c>
+      <c r="U6">
+        <v>113</v>
+      </c>
+      <c r="V6">
+        <v>111</v>
+      </c>
+      <c r="W6">
+        <v>124</v>
+      </c>
+      <c r="X6">
+        <v>113</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>121</v>
+      </c>
+      <c r="AA6">
+        <v>108</v>
+      </c>
+      <c r="AB6">
+        <v>118</v>
+      </c>
+      <c r="AC6">
+        <v>113</v>
+      </c>
+      <c r="AD6">
+        <v>105</v>
+      </c>
+      <c r="AE6">
+        <v>111</v>
+      </c>
+      <c r="AF6">
+        <v>113</v>
+      </c>
+      <c r="AG6">
+        <v>114</v>
+      </c>
+      <c r="AH6">
+        <v>115</v>
+      </c>
+      <c r="AI6">
         <v>119</v>
       </c>
-      <c r="AY3">
-        <v>122</v>
-      </c>
-      <c r="AZ3">
+      <c r="AJ6">
+        <v>110</v>
+      </c>
+      <c r="AK6">
+        <v>118</v>
+      </c>
+      <c r="AL6">
+        <v>113</v>
+      </c>
+      <c r="AM6">
+        <v>121</v>
+      </c>
+      <c r="AN6">
+        <v>109</v>
+      </c>
+      <c r="AO6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>114</v>
+      </c>
+      <c r="D7">
         <v>116</v>
       </c>
-      <c r="BA3">
+      <c r="E7">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7">
         <v>117</v>
       </c>
-      <c r="BB3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>114</v>
+      </c>
+      <c r="L7">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <v>117</v>
+      </c>
+      <c r="N7">
+        <v>115</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>125</v>
+      </c>
+      <c r="Q7">
+        <v>112</v>
+      </c>
+      <c r="R7">
+        <v>111</v>
+      </c>
+      <c r="S7">
+        <v>114</v>
+      </c>
+      <c r="T7">
+        <v>108</v>
+      </c>
+      <c r="U7">
+        <v>113</v>
+      </c>
+      <c r="V7">
+        <v>111</v>
+      </c>
+      <c r="W7">
+        <v>124</v>
+      </c>
+      <c r="X7">
+        <v>113</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>121</v>
+      </c>
+      <c r="AA7">
+        <v>108</v>
+      </c>
+      <c r="AB7">
         <v>118</v>
       </c>
-      <c r="BC3">
+      <c r="AC7">
         <v>113</v>
       </c>
-      <c r="BD3">
+      <c r="AD7">
         <v>105</v>
       </c>
-      <c r="BE3">
+      <c r="AE7">
+        <v>111</v>
+      </c>
+      <c r="AF7">
+        <v>113</v>
+      </c>
+      <c r="AG7">
+        <v>114</v>
+      </c>
+      <c r="AH7">
+        <v>115</v>
+      </c>
+      <c r="AI7">
+        <v>119</v>
+      </c>
+      <c r="AJ7">
+        <v>110</v>
+      </c>
+      <c r="AK7">
         <v>118</v>
       </c>
-      <c r="BF3">
+      <c r="AL7">
         <v>113</v>
       </c>
-      <c r="BG3">
-        <v>123</v>
-      </c>
-      <c r="BH3">
+      <c r="AM7">
+        <v>121</v>
+      </c>
+      <c r="AN7">
+        <v>109</v>
+      </c>
+      <c r="AO7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>114</v>
+      </c>
+      <c r="C8">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>117</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>114</v>
+      </c>
+      <c r="L8">
+        <v>115</v>
+      </c>
+      <c r="M8">
+        <v>117</v>
+      </c>
+      <c r="N8">
+        <v>115</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>125</v>
+      </c>
+      <c r="Q8">
+        <v>112</v>
+      </c>
+      <c r="R8">
+        <v>111</v>
+      </c>
+      <c r="S8">
+        <v>114</v>
+      </c>
+      <c r="T8">
+        <v>108</v>
+      </c>
+      <c r="U8">
         <v>113</v>
       </c>
-      <c r="BI3">
+      <c r="V8">
+        <v>111</v>
+      </c>
+      <c r="W8">
+        <v>124</v>
+      </c>
+      <c r="X8">
+        <v>113</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>121</v>
+      </c>
+      <c r="AA8">
+        <v>108</v>
+      </c>
+      <c r="AB8">
+        <v>118</v>
+      </c>
+      <c r="AC8">
+        <v>113</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>111</v>
+      </c>
+      <c r="AF8">
+        <v>113</v>
+      </c>
+      <c r="AG8">
+        <v>114</v>
+      </c>
+      <c r="AH8">
+        <v>115</v>
+      </c>
+      <c r="AI8">
+        <v>119</v>
+      </c>
+      <c r="AJ8">
+        <v>110</v>
+      </c>
+      <c r="AK8">
+        <v>118</v>
+      </c>
+      <c r="AL8">
+        <v>113</v>
+      </c>
+      <c r="AM8">
+        <v>121</v>
+      </c>
+      <c r="AN8">
+        <v>109</v>
+      </c>
+      <c r="AO8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>114</v>
+      </c>
+      <c r="D9">
         <v>116</v>
       </c>
-      <c r="BJ3">
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+      <c r="G9">
+        <v>117</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>114</v>
+      </c>
+      <c r="L9">
+        <v>115</v>
+      </c>
+      <c r="M9">
+        <v>117</v>
+      </c>
+      <c r="N9">
+        <v>115</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>125</v>
+      </c>
+      <c r="Q9">
+        <v>112</v>
+      </c>
+      <c r="R9">
+        <v>111</v>
+      </c>
+      <c r="S9">
+        <v>114</v>
+      </c>
+      <c r="T9">
+        <v>108</v>
+      </c>
+      <c r="U9">
+        <v>113</v>
+      </c>
+      <c r="V9">
+        <v>111</v>
+      </c>
+      <c r="W9">
+        <v>124</v>
+      </c>
+      <c r="X9">
+        <v>113</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>121</v>
       </c>
-      <c r="BK3">
+      <c r="AA9">
+        <v>108</v>
+      </c>
+      <c r="AB9">
         <v>118</v>
       </c>
-      <c r="BL3">
+      <c r="AC9">
+        <v>113</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>111</v>
+      </c>
+      <c r="AF9">
+        <v>113</v>
+      </c>
+      <c r="AG9">
+        <v>114</v>
+      </c>
+      <c r="AH9">
+        <v>115</v>
+      </c>
+      <c r="AI9">
+        <v>119</v>
+      </c>
+      <c r="AJ9">
+        <v>110</v>
+      </c>
+      <c r="AK9">
+        <v>118</v>
+      </c>
+      <c r="AL9">
+        <v>113</v>
+      </c>
+      <c r="AM9">
+        <v>121</v>
+      </c>
+      <c r="AN9">
+        <v>109</v>
+      </c>
+      <c r="AO9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>114</v>
+      </c>
+      <c r="C10">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>114</v>
+      </c>
+      <c r="L10">
+        <v>115</v>
+      </c>
+      <c r="M10">
+        <v>117</v>
+      </c>
+      <c r="N10">
+        <v>115</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>125</v>
+      </c>
+      <c r="Q10">
         <v>112</v>
       </c>
-      <c r="BM3">
-        <v>117</v>
-      </c>
-      <c r="BN3">
-        <v>117</v>
-      </c>
-      <c r="BO3">
+      <c r="R10">
+        <v>111</v>
+      </c>
+      <c r="S10">
+        <v>114</v>
+      </c>
+      <c r="T10">
+        <v>108</v>
+      </c>
+      <c r="U10">
+        <v>113</v>
+      </c>
+      <c r="V10">
+        <v>111</v>
+      </c>
+      <c r="W10">
+        <v>124</v>
+      </c>
+      <c r="X10">
+        <v>113</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>121</v>
+      </c>
+      <c r="AA10">
+        <v>108</v>
+      </c>
+      <c r="AB10">
+        <v>118</v>
+      </c>
+      <c r="AC10">
+        <v>113</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>111</v>
+      </c>
+      <c r="AF10">
+        <v>113</v>
+      </c>
+      <c r="AG10">
+        <v>114</v>
+      </c>
+      <c r="AH10">
         <v>115</v>
       </c>
-      <c r="BP3">
+      <c r="AI10">
+        <v>119</v>
+      </c>
+      <c r="AJ10">
+        <v>110</v>
+      </c>
+      <c r="AK10">
         <v>118</v>
       </c>
-      <c r="BQ3">
+      <c r="AL10">
+        <v>113</v>
+      </c>
+      <c r="AM10">
         <v>121</v>
       </c>
-      <c r="BR3">
-        <v>114</v>
-      </c>
-      <c r="BS3">
-        <v>122</v>
-      </c>
-      <c r="BT3">
-        <v>110</v>
-      </c>
-      <c r="BU3">
-        <v>117</v>
-      </c>
-      <c r="BV3">
-        <v>110</v>
-      </c>
-      <c r="BW3">
-        <v>112</v>
-      </c>
-      <c r="BX3">
-        <v>112</v>
-      </c>
-      <c r="BY3">
-        <v>107</v>
-      </c>
-      <c r="BZ3">
-        <v>116</v>
-      </c>
-      <c r="CA3">
-        <v>114</v>
-      </c>
-      <c r="CB3">
-        <v>122</v>
-      </c>
-      <c r="CC3">
-        <v>114</v>
-      </c>
-      <c r="CD3">
-        <v>110</v>
-      </c>
-      <c r="CE3">
-        <v>120</v>
-      </c>
-      <c r="CF3">
-        <v>115</v>
-      </c>
-      <c r="CG3">
-        <v>112</v>
-      </c>
-      <c r="CH3">
-        <v>116</v>
-      </c>
-      <c r="CI3">
-        <v>120</v>
-      </c>
-      <c r="CJ3">
-        <v>108</v>
-      </c>
-      <c r="CK3">
-        <v>114</v>
-      </c>
-      <c r="CL3">
-        <v>107</v>
-      </c>
-      <c r="CM3">
-        <v>115</v>
-      </c>
-      <c r="CN3">
-        <v>118</v>
-      </c>
-      <c r="CO3">
-        <v>106</v>
-      </c>
-      <c r="CP3">
-        <v>115</v>
-      </c>
-      <c r="CQ3">
-        <v>118</v>
-      </c>
-      <c r="CR3">
-        <v>117</v>
-      </c>
-      <c r="CS3">
-        <v>108</v>
-      </c>
-      <c r="CT3">
-        <v>117</v>
-      </c>
-      <c r="CU3">
-        <v>111</v>
-      </c>
-      <c r="CV3">
-        <v>122</v>
-      </c>
-      <c r="CW3">
-        <v>118</v>
+      <c r="AN10">
+        <v>109</v>
+      </c>
+      <c r="AO10">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6216,52 +5178,52 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -6953,16 +5915,16 @@
     </row>
     <row r="2">
       <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -6970,13 +5932,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6994,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7011,11 +5973,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -7031,6 +5996,9 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -7041,6 +6009,308 @@
         <v>1</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -7061,34 +6331,34 @@
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -7849,6 +7119,230 @@
         <f>=SUM(RoundTable!O2:O4)</f>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>=SUM(RoundTable!C2:C5)</f>
+      </c>
+      <c r="C5">
+        <f>=SUM(RoundTable!E2:E5)</f>
+      </c>
+      <c r="D5">
+        <f>=SUM(RoundTable!F2:F5)</f>
+      </c>
+      <c r="E5">
+        <f>=SUM(RoundTable!G2:G5)</f>
+      </c>
+      <c r="F5">
+        <f>=SUM(RoundTable!H2:H5)</f>
+      </c>
+      <c r="G5">
+        <f>=SUM(RoundTable!I2:I5)</f>
+      </c>
+      <c r="H5">
+        <f>=AVERAGE(RoundTable!L2:L5)</f>
+      </c>
+      <c r="I5">
+        <f>=AVERAGE(RoundTable!M2:M5)</f>
+      </c>
+      <c r="J5">
+        <f>=SUM(RoundTable!O2:O5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>=SUM(RoundTable!C2:C6)</f>
+      </c>
+      <c r="C6">
+        <f>=SUM(RoundTable!E2:E6)</f>
+      </c>
+      <c r="D6">
+        <f>=SUM(RoundTable!F2:F6)</f>
+      </c>
+      <c r="E6">
+        <f>=SUM(RoundTable!G2:G6)</f>
+      </c>
+      <c r="F6">
+        <f>=SUM(RoundTable!H2:H6)</f>
+      </c>
+      <c r="G6">
+        <f>=SUM(RoundTable!I2:I6)</f>
+      </c>
+      <c r="H6">
+        <f>=AVERAGE(RoundTable!L2:L6)</f>
+      </c>
+      <c r="I6">
+        <f>=AVERAGE(RoundTable!M2:M6)</f>
+      </c>
+      <c r="J6">
+        <f>=SUM(RoundTable!O2:O6)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>=SUM(RoundTable!C2:C7)</f>
+      </c>
+      <c r="C7">
+        <f>=SUM(RoundTable!E2:E7)</f>
+      </c>
+      <c r="D7">
+        <f>=SUM(RoundTable!F2:F7)</f>
+      </c>
+      <c r="E7">
+        <f>=SUM(RoundTable!G2:G7)</f>
+      </c>
+      <c r="F7">
+        <f>=SUM(RoundTable!H2:H7)</f>
+      </c>
+      <c r="G7">
+        <f>=SUM(RoundTable!I2:I7)</f>
+      </c>
+      <c r="H7">
+        <f>=AVERAGE(RoundTable!L2:L7)</f>
+      </c>
+      <c r="I7">
+        <f>=AVERAGE(RoundTable!M2:M7)</f>
+      </c>
+      <c r="J7">
+        <f>=SUM(RoundTable!O2:O7)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>=SUM(RoundTable!C2:C8)</f>
+      </c>
+      <c r="C8">
+        <f>=SUM(RoundTable!E2:E8)</f>
+      </c>
+      <c r="D8">
+        <f>=SUM(RoundTable!F2:F8)</f>
+      </c>
+      <c r="E8">
+        <f>=SUM(RoundTable!G2:G8)</f>
+      </c>
+      <c r="F8">
+        <f>=SUM(RoundTable!H2:H8)</f>
+      </c>
+      <c r="G8">
+        <f>=SUM(RoundTable!I2:I8)</f>
+      </c>
+      <c r="H8">
+        <f>=AVERAGE(RoundTable!L2:L8)</f>
+      </c>
+      <c r="I8">
+        <f>=AVERAGE(RoundTable!M2:M8)</f>
+      </c>
+      <c r="J8">
+        <f>=SUM(RoundTable!O2:O8)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>=SUM(RoundTable!C2:C9)</f>
+      </c>
+      <c r="C9">
+        <f>=SUM(RoundTable!E2:E9)</f>
+      </c>
+      <c r="D9">
+        <f>=SUM(RoundTable!F2:F9)</f>
+      </c>
+      <c r="E9">
+        <f>=SUM(RoundTable!G2:G9)</f>
+      </c>
+      <c r="F9">
+        <f>=SUM(RoundTable!H2:H9)</f>
+      </c>
+      <c r="G9">
+        <f>=SUM(RoundTable!I2:I9)</f>
+      </c>
+      <c r="H9">
+        <f>=AVERAGE(RoundTable!L2:L9)</f>
+      </c>
+      <c r="I9">
+        <f>=AVERAGE(RoundTable!M2:M9)</f>
+      </c>
+      <c r="J9">
+        <f>=SUM(RoundTable!O2:O9)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>=SUM(RoundTable!C2:C10)</f>
+      </c>
+      <c r="C10">
+        <f>=SUM(RoundTable!E2:E10)</f>
+      </c>
+      <c r="D10">
+        <f>=SUM(RoundTable!F2:F10)</f>
+      </c>
+      <c r="E10">
+        <f>=SUM(RoundTable!G2:G10)</f>
+      </c>
+      <c r="F10">
+        <f>=SUM(RoundTable!H2:H10)</f>
+      </c>
+      <c r="G10">
+        <f>=SUM(RoundTable!I2:I10)</f>
+      </c>
+      <c r="H10">
+        <f>=AVERAGE(RoundTable!L2:L10)</f>
+      </c>
+      <c r="I10">
+        <f>=AVERAGE(RoundTable!M2:M10)</f>
+      </c>
+      <c r="J10">
+        <f>=SUM(RoundTable!O2:O10)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>=SUM(RoundTable!C2:C11)</f>
+      </c>
+      <c r="C11">
+        <f>=SUM(RoundTable!E2:E11)</f>
+      </c>
+      <c r="D11">
+        <f>=SUM(RoundTable!F2:F11)</f>
+      </c>
+      <c r="E11">
+        <f>=SUM(RoundTable!G2:G11)</f>
+      </c>
+      <c r="F11">
+        <f>=SUM(RoundTable!H2:H11)</f>
+      </c>
+      <c r="G11">
+        <f>=SUM(RoundTable!I2:I11)</f>
+      </c>
+      <c r="H11">
+        <f>=AVERAGE(RoundTable!L2:L11)</f>
+      </c>
+      <c r="I11">
+        <f>=AVERAGE(RoundTable!M2:M11)</f>
+      </c>
+      <c r="J11">
+        <f>=SUM(RoundTable!O2:O11)</f>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -7862,12 +7356,12 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
-        <v>363</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="B2">
-        <f>=SUM(MarketMatching!B2:B101)</f>
+        <f>=SUM(MarketMatching!B2:B41)</f>
       </c>
     </row>
   </sheetData>
